--- a/Даша В..xlsx
+++ b/Даша В..xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\surname-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VoitovaD-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -396,15 +396,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -412,7 +412,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -420,7 +420,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -428,20 +428,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -449,7 +452,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -457,12 +460,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -470,37 +473,37 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>

--- a/Даша В..xlsx
+++ b/Даша В..xlsx
@@ -396,15 +396,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -412,7 +412,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -420,7 +420,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -428,12 +428,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -444,15 +444,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -460,12 +463,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -473,37 +476,37 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
